--- a/data/YKSLN (TRY).xlsx
+++ b/data/YKSLN (TRY).xlsx
@@ -4598,6 +4598,9 @@
       <c r="A108" t="str">
         <v xml:space="preserve">    Hedge Dahil Net Yabancı Para Pozisyonu</v>
       </c>
+      <c r="B108">
+        <v>-122306202</v>
+      </c>
       <c r="C108">
         <v>-126135243.40466616</v>
       </c>
@@ -4919,6 +4922,9 @@
       <c r="A5" t="str">
         <v xml:space="preserve">    Yurt İçi Satışlar</v>
       </c>
+      <c r="B5">
+        <v>1063596259</v>
+      </c>
       <c r="C5">
         <v>741448091.1780074</v>
       </c>
@@ -4929,7 +4935,7 @@
         <v>278654225.8840197</v>
       </c>
       <c r="F5">
-        <v>1831913844.3529904</v>
+        <v>1911697810</v>
       </c>
       <c r="G5">
         <v>1473717616.4729598</v>
@@ -4975,6 +4981,9 @@
       <c r="A6" t="str">
         <v xml:space="preserve">    Yurt Dışı Satışlar</v>
       </c>
+      <c r="B6">
+        <v>82200989</v>
+      </c>
       <c r="C6">
         <v>71284083.5469319</v>
       </c>
@@ -4985,7 +4994,7 @@
         <v>18611798.735723156</v>
       </c>
       <c r="F6">
-        <v>128897653.21525024</v>
+        <v>134511436</v>
       </c>
       <c r="G6">
         <v>118083332.00916483</v>
@@ -7553,6 +7562,9 @@
       <c r="A5" t="str">
         <v xml:space="preserve">    Yurt İçi Satışlar</v>
       </c>
+      <c r="B5">
+        <v>322148167.82199264</v>
+      </c>
       <c r="C5">
         <v>235225512.76101536</v>
       </c>
@@ -7563,7 +7575,7 @@
         <v>278654225.8840197</v>
       </c>
       <c r="F5">
-        <v>358196227.88003063</v>
+        <v>437980193.52704024</v>
       </c>
       <c r="G5">
         <v>430626387.8893037</v>
@@ -7606,6 +7618,9 @@
       <c r="A6" t="str">
         <v xml:space="preserve">    Yurt Dışı Satışlar</v>
       </c>
+      <c r="B6">
+        <v>10916905.453068107</v>
+      </c>
       <c r="C6">
         <v>28674958.10065662</v>
       </c>
@@ -7616,7 +7631,7 @@
         <v>18611798.735723156</v>
       </c>
       <c r="F6">
-        <v>10814321.206085414</v>
+        <v>16428103.990835175</v>
       </c>
       <c r="G6">
         <v>34578666.15455285</v>
@@ -10076,17 +10091,20 @@
       <c r="A5" t="str">
         <v xml:space="preserve">    Yurt İçi Satışlar</v>
       </c>
+      <c r="B5">
+        <v>1063596259</v>
+      </c>
       <c r="C5">
-        <v>1099644319.058038</v>
+        <v>1179428284.7050476</v>
       </c>
       <c r="D5">
-        <v>1295045194.1863263</v>
+        <v>1374829159.8333359</v>
       </c>
       <c r="E5">
-        <v>1531070364.7031052</v>
+        <v>1610854330.350115</v>
       </c>
       <c r="F5">
-        <v>1831913844.3529904</v>
+        <v>1911697810</v>
       </c>
       <c r="G5">
         <v>2462394963.3712015</v>
@@ -10123,17 +10141,20 @@
       <c r="A6" t="str">
         <v xml:space="preserve">    Yurt Dışı Satışlar</v>
       </c>
+      <c r="B6">
+        <v>82200989</v>
+      </c>
       <c r="C6">
-        <v>82098404.7530173</v>
+        <v>87712187.53776707</v>
       </c>
       <c r="D6">
-        <v>88002112.80691352</v>
+        <v>93615895.5916633</v>
       </c>
       <c r="E6">
-        <v>136228472.73443022</v>
+        <v>141842255.51918</v>
       </c>
       <c r="F6">
-        <v>128897653.21525024</v>
+        <v>134511436</v>
       </c>
       <c r="G6">
         <v>208275960.19235957</v>
